--- a/Wms12m.Presentation/Content/KatSablon.xlsx
+++ b/Wms12m.Presentation/Content/KatSablon.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazilim1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WMS\Wms12m.Presentation\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2ht4bAxfLh8JohE3Ug9I5nrFiRf5EOnhn3exPqFT8DbKYGIpFEztpDuPhPHiKLA7V2UVWAd7dgtSJs8NUhS63g==" workbookSaltValue="vX7ZUyjnEtzl8qnS8/b8bw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -51,18 +51,6 @@
     <t>Raf No</t>
   </si>
   <si>
-    <t>Genişlik(mm)</t>
-  </si>
-  <si>
-    <t>Derinlik(mm)</t>
-  </si>
-  <si>
-    <t>Yükseklik(mm)</t>
-  </si>
-  <si>
-    <t>Kapasite kg</t>
-  </si>
-  <si>
     <t>Açıklama</t>
   </si>
   <si>
@@ -91,6 +79,18 @@
   </si>
   <si>
     <t>Küçük Raf</t>
+  </si>
+  <si>
+    <t>Genişlik (mm)</t>
+  </si>
+  <si>
+    <t>Derinlik (mm)</t>
+  </si>
+  <si>
+    <t>Yükseklik (mm)</t>
+  </si>
+  <si>
+    <t>Kapasite (kg)</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1911,6 +1911,7 @@
     <col min="12" max="12" width="11.25" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.375" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="11" hidden="1"/>
   </cols>
   <sheetData>
@@ -1937,69 +1938,69 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IeCm1b1ZTiaoOgBfxYL5LivexSpKyNOVShZygPbNXhAI0Bz9KgCcHc8lvXzEfCcqa/GEJdWTl8Y8rUxU8k5VwA==" saltValue="DuRHgmztJC9f5hDs6LCEdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bESdgSZV2oxmWsWMPzD8uCS3FLOqIu+sDOPFyrUWN0tHuPBBi/XKTs0SWQPgFAxSEanhWkXcSD6a2lZ8z1b8pQ==" saltValue="yhTZO8mWra4FKzqKlR48bA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L292">
       <formula1>$N$2:$N$5</formula1>

--- a/Wms12m.Presentation/Content/KatSablon.xlsx
+++ b/Wms12m.Presentation/Content/KatSablon.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WMS\Wms12m.Presentation\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\Projects\12M\WMS\Wms12m.Presentation\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2ht4bAxfLh8JohE3Ug9I5nrFiRf5EOnhn3exPqFT8DbKYGIpFEztpDuPhPHiKLA7V2UVWAd7dgtSJs8NUhS63g==" workbookSaltValue="vX7ZUyjnEtzl8qnS8/b8bw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$M$1387</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$M$1384</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Depo</t>
   </si>
@@ -67,15 +67,6 @@
   </si>
   <si>
     <t>Bakır</t>
-  </si>
-  <si>
-    <t>Bekleme alanı</t>
-  </si>
-  <si>
-    <t>Mal kabul alanı</t>
-  </si>
-  <si>
-    <t>Sevkiyat alanı</t>
   </si>
   <si>
     <t>Küçük Raf</t>
@@ -1558,8 +1549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table43" displayName="Table43" ref="N1:N9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="N1:N9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table43" displayName="Table43" ref="N1:N6" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="N1:N6"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Özellik" dataCellStyle="Normal"/>
   </tableColumns>
@@ -1889,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1938,16 +1929,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1976,7 +1967,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1984,25 +1975,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N9" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bESdgSZV2oxmWsWMPzD8uCS3FLOqIu+sDOPFyrUWN0tHuPBBi/XKTs0SWQPgFAxSEanhWkXcSD6a2lZ8z1b8pQ==" saltValue="yhTZO8mWra4FKzqKlR48bA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dVDUandHhjjCGFnISOoRiOikDlfivdmqoFHbBYEBWzZ7JI/25kHftl0HZrT8hRjls3n9uqkGGlsc9NI9eAoXhg==" saltValue="Qum+jc47ya8JJUWhdtJZZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L292">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L289">
       <formula1>$N$2:$N$5</formula1>
     </dataValidation>
   </dataValidations>
